--- a/Python/output/case-study/FC_SA_WSresults.xlsx
+++ b/Python/output/case-study/FC_SA_WSresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17500" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="1360" windowWidth="28100" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_WSresults" sheetId="1" r:id="rId1"/>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,16 +404,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5944541.284</v>
+        <v>6405078.1767135402</v>
       </c>
       <c r="E2">
-        <v>869401.97129999998</v>
+        <v>869343.06806130696</v>
       </c>
       <c r="F2">
-        <v>11.71304488</v>
+        <v>10.745505094528101</v>
       </c>
       <c r="G2">
-        <v>2.3848168850000002</v>
+        <v>2.2393829822540199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -427,16 +427,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3303552.9959999998</v>
+        <v>3842092.0725914398</v>
       </c>
       <c r="E3">
-        <v>137555.7291</v>
+        <v>313857.18380826799</v>
       </c>
       <c r="F3">
-        <v>11.405069109999999</v>
+        <v>11.093857049942001</v>
       </c>
       <c r="G3">
-        <v>2.2798199650000002</v>
+        <v>2.2190558910369802</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -444,22 +444,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2473889.199</v>
+        <v>3467331.59217693</v>
       </c>
       <c r="E4">
-        <v>153553.08189999999</v>
+        <v>215396.699652529</v>
       </c>
       <c r="F4">
-        <v>11.402033810000001</v>
+        <v>10.915745973587001</v>
       </c>
       <c r="G4">
-        <v>2.066293001</v>
+        <v>2.07713294029235</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,45 +467,45 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2260551.5830000001</v>
+        <v>3183455.6284147399</v>
       </c>
       <c r="E5">
-        <v>124686.6695</v>
+        <v>237980.117474845</v>
       </c>
       <c r="F5">
-        <v>11.21089697</v>
+        <v>11.0409247875213</v>
       </c>
       <c r="G5">
-        <v>1.9994261259999999</v>
+        <v>2.0127081871032702</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5393074.3909999998</v>
+        <v>2905967.5004101801</v>
       </c>
       <c r="E6">
-        <v>774831.76749999996</v>
+        <v>166008.21075488001</v>
       </c>
       <c r="F6">
-        <v>331.50267480000002</v>
+        <v>11.1122329235076</v>
       </c>
       <c r="G6">
-        <v>2.2332220079999998</v>
+        <v>2.0020580291747998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -513,22 +513,22 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2899711.4890000001</v>
+        <v>5859829.44998556</v>
       </c>
       <c r="E7">
-        <v>214739.45</v>
+        <v>774792.62879527803</v>
       </c>
       <c r="F7">
-        <v>362.58345009999999</v>
+        <v>334.92293906211802</v>
       </c>
       <c r="G7">
-        <v>2.2253789899999998</v>
+        <v>2.2497379779815598</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,22 +536,22 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2593849.0750000002</v>
+        <v>3777172.4363180101</v>
       </c>
       <c r="E8">
-        <v>274468.66259999998</v>
+        <v>315137.03694455</v>
       </c>
       <c r="F8">
-        <v>370.0873952</v>
+        <v>366.15545129776001</v>
       </c>
       <c r="G8">
-        <v>2.0760498049999998</v>
+        <v>2.1998939514160099</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -559,114 +559,68 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2338092.8160000001</v>
+        <v>3541027.51164205</v>
       </c>
       <c r="E9">
-        <v>246453.77359999999</v>
+        <v>327592.36932961002</v>
       </c>
       <c r="F9">
-        <v>372.55005310000001</v>
+        <v>373.355695009231</v>
       </c>
       <c r="G9">
-        <v>1.9731469151000001</v>
+        <v>2.1006898880004798</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>7406049.3712892402</v>
+        <v>3359155.3627452999</v>
       </c>
       <c r="E10">
-        <v>1031575.22045129</v>
+        <v>338208.76245123002</v>
       </c>
       <c r="F10">
-        <v>11.7413947582244</v>
+        <v>371.24077486991803</v>
       </c>
       <c r="G10">
-        <v>2.3907237052917401</v>
+        <v>2.0402328968047998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>9333435.6008591298</v>
+        <v>3218846.5683567198</v>
       </c>
       <c r="E11">
-        <v>1209191.38909081</v>
+        <v>342507.49363475299</v>
       </c>
       <c r="F11">
-        <v>10.555150985717701</v>
+        <v>364.11807513237</v>
       </c>
       <c r="G11">
-        <v>2.41248202323913</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>6433658.9935691804</v>
-      </c>
-      <c r="E12">
-        <v>913779.92055993201</v>
-      </c>
-      <c r="F12">
-        <v>342.09499406814501</v>
-      </c>
-      <c r="G12">
-        <v>2.4240193367004301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>7392345.4495539498</v>
-      </c>
-      <c r="E13">
-        <v>1022706.38490066</v>
-      </c>
-      <c r="F13">
-        <v>307.11482000350901</v>
-      </c>
-      <c r="G13">
-        <v>2.3389759063720699</v>
+        <v>1.94798779487609</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/FC_SA_WSresults.xlsx
+++ b/Python/output/case-study/FC_SA_WSresults.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD5BAA-4D65-9845-9743-0A00071CF8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1360" windowWidth="28100" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="13560" yWindow="3820" windowWidth="28100" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FC_SA_WSresults" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -94,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>5859829.44998556</v>
+        <v>4897396.92052243</v>
       </c>
       <c r="E7">
-        <v>774792.62879527803</v>
+        <v>499477.84790407401</v>
       </c>
       <c r="F7">
-        <v>334.92293906211802</v>
+        <v>1647.0279481410901</v>
       </c>
       <c r="G7">
-        <v>2.2497379779815598</v>
+        <v>2.3188228607177699</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -542,16 +546,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3777172.4363180101</v>
+        <v>3650561.5549256499</v>
       </c>
       <c r="E8">
-        <v>315137.03694455</v>
+        <v>181896.27411821499</v>
       </c>
       <c r="F8">
-        <v>366.15545129776001</v>
+        <v>1864.8479616641901</v>
       </c>
       <c r="G8">
-        <v>2.1998939514160099</v>
+        <v>2.2290968894958398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,16 +569,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3541027.51164205</v>
+        <v>3412983.7048560302</v>
       </c>
       <c r="E9">
-        <v>327592.36932961002</v>
+        <v>228295.97833523899</v>
       </c>
       <c r="F9">
-        <v>373.355695009231</v>
+        <v>1860.6812698840999</v>
       </c>
       <c r="G9">
-        <v>2.1006898880004798</v>
+        <v>2.1135787963867099</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -588,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3359155.3627452999</v>
+        <v>3115632.0744192898</v>
       </c>
       <c r="E10">
-        <v>338208.76245123002</v>
+        <v>225805.075342419</v>
       </c>
       <c r="F10">
-        <v>371.24077486991803</v>
+        <v>1881.6899180412199</v>
       </c>
       <c r="G10">
-        <v>2.0402328968047998</v>
+        <v>2.0400288105010902</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -611,16 +615,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3218846.5683567198</v>
+        <v>2893930.8896514201</v>
       </c>
       <c r="E11">
-        <v>342507.49363475299</v>
+        <v>273594.33508308098</v>
       </c>
       <c r="F11">
-        <v>364.11807513237</v>
+        <v>1855.4578807353901</v>
       </c>
       <c r="G11">
-        <v>1.94798779487609</v>
+        <v>1.9492323398589999</v>
       </c>
     </row>
   </sheetData>
